--- a/Plots/MohitPlotsDE/human_blood_01_Monocyte_FCGR3AVsMonocyte_CD14_DEtrain.xlsx
+++ b/Plots/MohitPlotsDE/human_blood_01_Monocyte_FCGR3AVsMonocyte_CD14_DEtrain.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="JIND+" r:id="rId3" sheetId="1"/>
+    <sheet name="Cell Annotations" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/Plots/MohitPlotsDE/human_blood_01_Monocyte_FCGR3AVsMonocyte_CD14_DEtrain.xlsx
+++ b/Plots/MohitPlotsDE/human_blood_01_Monocyte_FCGR3AVsMonocyte_CD14_DEtrain.xlsx
@@ -3428,7 +3428,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="3">
@@ -3448,7 +3448,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="4">
@@ -25559,7 +25559,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="3">
@@ -25579,7 +25579,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="4">
